--- a/chapter4/tmp/users_info_out.xlsx
+++ b/chapter4/tmp/users_info_out.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
-    <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -53,23 +53,90 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -362,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AL6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,233 +438,235 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>USER_ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>MYID</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>ACCOUNT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>NAME</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZE_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>ORGANIZE_NAME</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>DUTY_ID</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>TITLE_ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PASSWORD</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>EMAIL</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>LANG</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>THEME</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>FIRST_VISIT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>PREVIOUS_VISIT</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>LAST_VISITS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>LOGIN_COUNT</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ISEMPLOYEE</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>STATUS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>IP</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>QUESTION_ID</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ANSWER</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>ISONLINE</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>CREATED</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>LASTMOD</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>CREATER</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>MODIFYER</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>TEL</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>stuNo</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>qq</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>weixin</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>meal_arithmetic_id</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>arithmetic_name</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>sex</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>poo</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>address</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>age</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
         <v>982</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
         <is>
           <t>叶亦凯</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>sx</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>328</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>统计班</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
         <is>
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" s="2" t="n">
         <v>41869.90413194444</v>
       </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" s="2" t="n">
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" s="2" t="n">
         <v>42608.57900462963</v>
       </c>
-      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
@@ -605,90 +674,93 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
-      <c r="X2" s="2" t="n">
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" s="2" t="n">
         <v>41869.90413194444</v>
       </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="n">
         <v>981</v>
       </c>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="n">
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
         <v>18688880001</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>2017002</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="n">
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="n">
         <v>86</v>
       </c>
-      <c r="AG2" t="inlineStr">
+      <c r="AH2" t="inlineStr">
         <is>
           <t>关联规则</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
+      <c r="AI2" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="AI2" t="inlineStr">
+      <c r="AJ2" t="inlineStr">
         <is>
           <t>广东广州</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
+      <c r="AK2" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
         <v>983</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>邓彬彬</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>lyy</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>328</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>统计班</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr">
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
         <is>
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" s="2" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
         <v>42239.57450231481</v>
       </c>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" s="2" t="n">
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" s="2" t="n">
         <v>42603.71944444445</v>
       </c>
-      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
@@ -696,90 +768,93 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
-      <c r="X3" s="2" t="n">
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" s="2" t="n">
         <v>42239.57450231481</v>
       </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="n">
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="n">
         <v>981</v>
       </c>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="n">
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="n">
         <v>18688880002</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>2017003</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="n">
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
         <v>86</v>
       </c>
-      <c r="AG3" t="inlineStr">
+      <c r="AH3" t="inlineStr">
         <is>
           <t>关联规则</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
+      <c r="AI3" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="AI3" t="inlineStr">
+      <c r="AJ3" t="inlineStr">
         <is>
           <t>广东广州</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
+      <c r="AK3" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
         <v>984</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>张建涛</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>zad</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>328</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>统计班</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
         <is>
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" s="2" t="n">
         <v>41997.81006944444</v>
       </c>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" s="2" t="n">
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" s="2" t="n">
         <v>42607.48123842593</v>
       </c>
-      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
@@ -787,86 +862,89 @@
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" s="2" t="n">
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" s="2" t="n">
         <v>41997.81006944444</v>
       </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="n">
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="n">
         <v>981</v>
       </c>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="n">
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
         <v>18688880003</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>2017004</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="n">
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
         <v>86</v>
       </c>
-      <c r="AG4" t="inlineStr">
+      <c r="AH4" t="inlineStr">
         <is>
           <t>关联规则</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
+      <c r="AI4" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AJ4" t="inlineStr">
         <is>
           <t>广东广州</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
+      <c r="AK4" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>22</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
         <v>985</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>莫诗怡</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>mf</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>328</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>统计班</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
         <is>
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" s="2" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" s="2" t="n">
         <v>41749.84532407407</v>
       </c>
-      <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
@@ -876,90 +954,93 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
-      <c r="X5" s="2" t="n">
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" s="2" t="n">
         <v>41749.84532407407</v>
       </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="n">
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="n">
         <v>981</v>
       </c>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="n">
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="n">
         <v>18688880004</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>2017005</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="n">
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="n">
         <v>86</v>
       </c>
-      <c r="AG5" t="inlineStr">
+      <c r="AH5" t="inlineStr">
         <is>
           <t>关联规则</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
+      <c r="AI5" t="inlineStr">
         <is>
           <t>女</t>
         </is>
       </c>
-      <c r="AI5" t="inlineStr">
+      <c r="AJ5" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
+      <c r="AK5" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>23</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
         <v>986</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>莫子建</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>mjc</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>328</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>统计班</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr">
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>202cb962ac59075b964b07152d234b70</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" s="2" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" s="2" t="n">
         <v>41893.48483796296</v>
       </c>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" s="2" t="n">
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" s="2" t="n">
         <v>42602.46881944445</v>
       </c>
-      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
@@ -967,50 +1048,51 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" s="2" t="n">
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" s="2" t="n">
         <v>41893.48483796296</v>
       </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="n">
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="n">
         <v>981</v>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="n">
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
         <v>18688880005</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>2017006</v>
       </c>
-      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="n">
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="n">
         <v>86</v>
       </c>
-      <c r="AG6" t="inlineStr">
+      <c r="AH6" t="inlineStr">
         <is>
           <t>关联规则</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
+      <c r="AI6" t="inlineStr">
         <is>
           <t>男</t>
         </is>
       </c>
-      <c r="AI6" t="inlineStr">
+      <c r="AJ6" t="inlineStr">
         <is>
           <t>广西</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
+      <c r="AK6" t="inlineStr">
         <is>
           <t>广州</t>
         </is>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>